--- a/metrics/API_providers/fireworks_llama31_8b.xlsx
+++ b/metrics/API_providers/fireworks_llama31_8b.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="CU_10" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="CU_1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="CU_1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,46 +452,46 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>751.9358182364391</v>
+        <v>106.1396712836408</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4719512462615967</v>
+        <v>1.532976865768433</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>992.1405854187832</v>
+        <v>115.3069034343266</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5851731300354004</v>
+        <v>1.764195680618286</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" t="n">
-        <v>949.9922689431238</v>
+        <v>112.8088152678224</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8470103740692139</v>
+        <v>0.8136508464813232</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" t="n">
-        <v>1023.985717972636</v>
+        <v>127.393711342735</v>
       </c>
       <c r="C5" t="n">
-        <v>1.185574054718018</v>
+        <v>0.738821268081665</v>
       </c>
     </row>
     <row r="6">
@@ -500,21 +499,21 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>990.397177768505</v>
+        <v>123.1398700580729</v>
       </c>
       <c r="C6" t="n">
-        <v>1.259252548217773</v>
+        <v>1.947203636169434</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" t="n">
-        <v>865.3176299120946</v>
+        <v>127.9773957693416</v>
       </c>
       <c r="C7" t="n">
-        <v>1.273253202438354</v>
+        <v>2.109457731246948</v>
       </c>
     </row>
     <row r="8">
@@ -522,10 +521,10 @@
         <v>34</v>
       </c>
       <c r="B8" t="n">
-        <v>831.6182921236942</v>
+        <v>125.1663282849791</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3874208927154541</v>
+        <v>0.9995176792144775</v>
       </c>
     </row>
     <row r="9">
@@ -533,10 +532,10 @@
         <v>39</v>
       </c>
       <c r="B9" t="n">
-        <v>800.2065604615842</v>
+        <v>133.2762471896892</v>
       </c>
       <c r="C9" t="n">
-        <v>1.24745512008667</v>
+        <v>0.6625709533691406</v>
       </c>
     </row>
     <row r="10">
@@ -544,43 +543,43 @@
         <v>44</v>
       </c>
       <c r="B10" t="n">
-        <v>787.3605190115861</v>
+        <v>132.0376097534187</v>
       </c>
       <c r="C10" t="n">
-        <v>1.366872072219849</v>
+        <v>2.098676443099976</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" t="n">
-        <v>769.5129709785191</v>
+        <v>138.6559241100893</v>
       </c>
       <c r="C11" t="n">
-        <v>2.847176313400269</v>
+        <v>2.300901174545288</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B12" t="n">
-        <v>787.1022888106877</v>
+        <v>139.9225270971298</v>
       </c>
       <c r="C12" t="n">
-        <v>3.038720607757568</v>
+        <v>1.386719465255737</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" t="n">
-        <v>817.5699297457149</v>
+        <v>141.4561875570322</v>
       </c>
       <c r="C13" t="n">
-        <v>2.512722730636597</v>
+        <v>1.768386840820312</v>
       </c>
     </row>
     <row r="14">
@@ -588,32 +587,32 @@
         <v>64</v>
       </c>
       <c r="B14" t="n">
-        <v>824.0963944740491</v>
+        <v>143.4118898939986</v>
       </c>
       <c r="C14" t="n">
-        <v>2.04297924041748</v>
+        <v>0.4782660007476807</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" t="n">
-        <v>816.7188579367169</v>
+        <v>146.7762571818261</v>
       </c>
       <c r="C15" t="n">
-        <v>3.264554500579834</v>
+        <v>0.3691203594207764</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B16" t="n">
-        <v>831.4240085143101</v>
+        <v>145.3911604196867</v>
       </c>
       <c r="C16" t="n">
-        <v>3.26758337020874</v>
+        <v>0.5246210098266602</v>
       </c>
     </row>
     <row r="17">
@@ -621,10 +620,10 @@
         <v>80</v>
       </c>
       <c r="B17" t="n">
-        <v>810.4591450698599</v>
+        <v>144.4943923772051</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3779110908508301</v>
+        <v>1.40622878074646</v>
       </c>
     </row>
     <row r="18">
@@ -632,288 +631,32 @@
         <v>85</v>
       </c>
       <c r="B18" t="n">
-        <v>802.1294068347693</v>
+        <v>148.4931567536729</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7255594730377197</v>
+        <v>0.7515811920166016</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B19" t="n">
-        <v>790.8491154189089</v>
+        <v>146.7036502963946</v>
       </c>
       <c r="C19" t="n">
-        <v>1.460016012191772</v>
+        <v>1.872874975204468</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B20" t="n">
-        <v>784.3744598944957</v>
+        <v>147.5960628345091</v>
       </c>
       <c r="C20" t="n">
-        <v>3.204692363739014</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>100</v>
-      </c>
-      <c r="B21" t="n">
-        <v>783.1443540171085</v>
-      </c>
-      <c r="C21" t="n">
-        <v>3.146461725234985</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Time (seconds)</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Tokens per Second</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Latency (seconds)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B2" t="n">
-        <v>66.77280566534101</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3.011110305786133</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>9</v>
-      </c>
-      <c r="B3" t="n">
-        <v>117.440720472284</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2.581169605255127</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>15</v>
-      </c>
-      <c r="B4" t="n">
-        <v>114.5365243118099</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2.472180604934692</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>20</v>
-      </c>
-      <c r="B5" t="n">
-        <v>121.0978860654001</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.298123836517334</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>25</v>
-      </c>
-      <c r="B6" t="n">
-        <v>129.5779368926498</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.4912765026092529</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>29</v>
-      </c>
-      <c r="B7" t="n">
-        <v>132.7796165422933</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.3972404003143311</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>35</v>
-      </c>
-      <c r="B8" t="n">
-        <v>123.3050560764336</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2.264204978942871</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>40</v>
-      </c>
-      <c r="B9" t="n">
-        <v>127.0218269558145</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2803442478179932</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>45</v>
-      </c>
-      <c r="B10" t="n">
-        <v>124.9114355427464</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3695294857025146</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>50</v>
-      </c>
-      <c r="B11" t="n">
-        <v>129.5240950751478</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.035357713699341</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>55</v>
-      </c>
-      <c r="B12" t="n">
-        <v>128.3309290067183</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.4177286624908447</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>60</v>
-      </c>
-      <c r="B13" t="n">
-        <v>126.2434264268085</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2.322602987289429</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>65</v>
-      </c>
-      <c r="B14" t="n">
-        <v>130.650288236447</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2.462465524673462</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>70</v>
-      </c>
-      <c r="B15" t="n">
-        <v>129.5008262439699</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2.538905620574951</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>75</v>
-      </c>
-      <c r="B16" t="n">
-        <v>125.052657926986</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2.596519947052002</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>80</v>
-      </c>
-      <c r="B17" t="n">
-        <v>126.7333702842275</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.663386344909668</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>85</v>
-      </c>
-      <c r="B18" t="n">
-        <v>126.1330469996678</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.8650312423706055</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>90</v>
-      </c>
-      <c r="B19" t="n">
-        <v>126.2156019504372</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1.540843725204468</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>94</v>
-      </c>
-      <c r="B20" t="n">
-        <v>126.8800995610033</v>
-      </c>
-      <c r="C20" t="n">
-        <v>2.411041736602783</v>
+        <v>0.2666053771972656</v>
       </c>
     </row>
     <row r="21">
@@ -921,10 +664,10 @@
         <v>99</v>
       </c>
       <c r="B21" t="n">
-        <v>128.2017810625511</v>
+        <v>149.511816540282</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4956607818603516</v>
+        <v>2.090612649917603</v>
       </c>
     </row>
   </sheetData>
